--- a/examples/sources/data/unsolved/to_schedule/2019-02-13.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-02-13.xlsx
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="M75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -4153,7 +4153,7 @@
         <v>1</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O77" s="2">
         <v>43509</v>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="M81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -4449,7 +4449,7 @@
         <v>1</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O84" s="2">
         <v>43509</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="M85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -4663,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O89" s="2">
         <v>43509</v>
@@ -4704,7 +4704,7 @@
         <v>1</v>
       </c>
       <c r="N90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O90" s="2">
         <v>43509</v>
@@ -4742,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="M91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N91">
         <v>1</v>
